--- a/INTLINE/data/534/WSA/WSA.xlsx
+++ b/INTLINE/data/534/WSA/WSA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ABU2"/>
+  <dimension ref="A1:ABV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4099,15 +4099,20 @@
       </c>
       <c r="ABS1" s="1" t="inlineStr">
         <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="ABT1" s="1" t="inlineStr">
+      <c r="ABU1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="ABU1" s="1" t="inlineStr">
+      <c r="ABV1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -6343,28 +6348,31 @@
         <v>9703</v>
       </c>
       <c r="ABO2" t="n">
-        <v>10174</v>
+        <v>10178</v>
       </c>
       <c r="ABP2" t="n">
-        <v>9896</v>
+        <v>9898</v>
       </c>
       <c r="ABQ2" t="n">
-        <v>10506</v>
+        <v>10511</v>
       </c>
       <c r="ABR2" t="n">
-        <v>10781</v>
-      </c>
-      <c r="ABS2" t="inlineStr">
+        <v>10889</v>
+      </c>
+      <c r="ABS2" t="n">
+        <v>10055</v>
+      </c>
+      <c r="ABT2" t="inlineStr">
         <is>
           <t>IPST0001</t>
         </is>
       </c>
-      <c r="ABT2" t="inlineStr">
+      <c r="ABU2" t="inlineStr">
         <is>
           <t>Production of Crude Steel</t>
         </is>
       </c>
-      <c r="ABU2" t="inlineStr">
+      <c r="ABV2" t="inlineStr">
         <is>
           <t>Thousands of Metric Tons</t>
         </is>
